--- a/config_0817/shoping_config.xlsx
+++ b/config_0817/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1227">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -3235,14 +3235,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3800000,300000,1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3615,10 +3607,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>9800000,0,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4087,9 +4075,6 @@
   </si>
   <si>
     <t>"480万金币","首次救济金增加88888金币",</t>
-  </si>
-  <si>
-    <t>"480万金币","每日领记牌器1天","每日领300000金币",</t>
   </si>
   <si>
     <t>"980万金币","核能风暴*1",</t>
@@ -5472,6 +5457,30 @@
   </si>
   <si>
     <t>{max_jing_bi=10000,max_fish_coin=10000,fish_ground=1,play_times=1}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*5","每日领300000金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6270,7 +6279,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6383,7 +6392,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>46</v>
@@ -6463,7 +6472,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -6543,7 +6552,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
@@ -6623,7 +6632,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -6703,7 +6712,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>46</v>
@@ -6783,7 +6792,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>46</v>
@@ -6863,7 +6872,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
@@ -6943,7 +6952,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>46</v>
@@ -7024,7 +7033,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -7107,7 +7116,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>46</v>
@@ -7187,7 +7196,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>46</v>
@@ -7267,7 +7276,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>46</v>
@@ -7347,7 +7356,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>46</v>
@@ -7427,7 +7436,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>46</v>
@@ -7507,7 +7516,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>46</v>
@@ -7609,10 +7618,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>49</v>
@@ -7681,10 +7690,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>49</v>
@@ -7753,10 +7762,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>49</v>
@@ -7825,10 +7834,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>49</v>
@@ -7897,10 +7906,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>49</v>
@@ -7969,10 +7978,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>49</v>
@@ -8041,10 +8050,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>49</v>
@@ -8092,7 +8101,7 @@
         <v>45</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>46</v>
@@ -8159,10 +8168,10 @@
   <dimension ref="A1:AL340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomRight" activeCell="F85" sqref="F85:F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8510,7 +8519,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -8553,7 +8562,7 @@
         <v>122</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="AF5" s="5">
         <v>1</v>
@@ -8687,7 +8696,7 @@
         <v>123</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -8955,7 +8964,7 @@
         <v>141</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -9064,7 +9073,7 @@
         <v>145</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -9120,7 +9129,7 @@
         <v>148</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -9362,7 +9371,7 @@
         <v>600</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>711</v>
@@ -9397,10 +9406,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -9459,7 +9468,7 @@
         <v>161</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -9515,10 +9524,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -11185,7 +11194,7 @@
         <v>219</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -11206,7 +11215,7 @@
         <v>220</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>552</v>
@@ -11291,10 +11300,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -11350,7 +11359,7 @@
         <v>224</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -11830,10 +11839,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -12175,7 +12184,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -12470,7 +12479,7 @@
         <v>248</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -12488,10 +12497,10 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="U77" s="19" t="s">
         <v>551</v>
@@ -12526,7 +12535,7 @@
         <v>249</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -12565,10 +12574,10 @@
         <v>90</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AB78" s="40" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AF78" s="19">
         <v>1</v>
@@ -12588,10 +12597,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J79" s="5">
         <v>-20</v>
@@ -12630,10 +12639,10 @@
         <v>90</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="AF79" s="5">
         <v>1</v>
@@ -12653,10 +12662,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="J80" s="5">
         <v>-20</v>
@@ -12698,10 +12707,10 @@
         <v>612</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="AF80" s="5">
         <v>1</v>
@@ -12724,7 +12733,7 @@
         <v>252</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -12763,7 +12772,7 @@
         <v>612</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="AF81" s="19">
         <v>1</v>
@@ -12786,7 +12795,7 @@
         <v>253</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="J82" s="5">
         <v>-20</v>
@@ -12842,7 +12851,7 @@
         <v>255</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -12860,7 +12869,7 @@
         <v>4800</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>1086</v>
+        <v>1221</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>745</v>
@@ -12898,7 +12907,7 @@
         <v>256</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -12916,7 +12925,7 @@
         <v>4800</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>746</v>
@@ -12940,165 +12949,165 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19">
+    <row r="85" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="5">
         <v>10002</v>
       </c>
-      <c r="F85" s="19">
-        <v>1</v>
-      </c>
-      <c r="G85" s="19" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>895</v>
-      </c>
-      <c r="J85" s="19">
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="J85" s="5">
         <v>-23</v>
       </c>
-      <c r="K85" s="19">
-        <v>1</v>
-      </c>
-      <c r="L85" s="19">
-        <v>0</v>
-      </c>
-      <c r="M85" s="19" t="s">
+      <c r="K85" s="5">
+        <v>1</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0</v>
+      </c>
+      <c r="M85" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N85" s="19">
+      <c r="N85" s="5">
         <v>4800</v>
       </c>
-      <c r="O85" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="P85" s="19" t="s">
-        <v>747</v>
-      </c>
-      <c r="U85" s="19" t="s">
+      <c r="O85" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="U85" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="V85" s="38" t="s">
+      <c r="V85" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="W85" s="19">
-        <v>0</v>
-      </c>
-      <c r="X85" s="19">
+      <c r="W85" s="5">
+        <v>0</v>
+      </c>
+      <c r="X85" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AF85" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG85" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19">
+      <c r="AF85" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG85" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B86" s="5">
         <v>10003</v>
       </c>
-      <c r="F86" s="19">
-        <v>1</v>
-      </c>
-      <c r="G86" s="19" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H86" s="19" t="s">
-        <v>896</v>
-      </c>
-      <c r="J86" s="19">
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="J86" s="5">
         <v>-24</v>
       </c>
-      <c r="K86" s="19">
-        <v>1</v>
-      </c>
-      <c r="L86" s="19">
-        <v>0</v>
-      </c>
-      <c r="M86" s="19" t="s">
+      <c r="K86" s="5">
+        <v>1</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0</v>
+      </c>
+      <c r="M86" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N86" s="19">
+      <c r="N86" s="5">
         <v>4800</v>
       </c>
-      <c r="U86" s="19" t="s">
+      <c r="U86" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="V86" s="19">
+      <c r="V86" s="5">
         <v>99999999</v>
       </c>
-      <c r="W86" s="19">
-        <v>0</v>
-      </c>
-      <c r="X86" s="19">
+      <c r="W86" s="5">
+        <v>0</v>
+      </c>
+      <c r="X86" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AF86" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG86" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19">
+      <c r="AF86" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG86" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="5">
         <v>10004</v>
       </c>
-      <c r="F87" s="19">
-        <v>1</v>
-      </c>
-      <c r="G87" s="19" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>897</v>
-      </c>
-      <c r="J87" s="19">
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="J87" s="5">
         <v>-25</v>
       </c>
-      <c r="K87" s="19">
-        <v>1</v>
-      </c>
-      <c r="L87" s="19">
-        <v>0</v>
-      </c>
-      <c r="M87" s="19" t="s">
+      <c r="K87" s="5">
+        <v>1</v>
+      </c>
+      <c r="L87" s="5">
+        <v>0</v>
+      </c>
+      <c r="M87" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N87" s="19">
+      <c r="N87" s="5">
         <v>9600</v>
       </c>
-      <c r="O87" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="P87" s="19" t="s">
-        <v>748</v>
-      </c>
-      <c r="U87" s="19" t="s">
+      <c r="O87" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="U87" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="V87" s="19">
+      <c r="V87" s="5">
         <v>99999999</v>
       </c>
-      <c r="W87" s="19">
-        <v>0</v>
-      </c>
-      <c r="X87" s="19">
+      <c r="W87" s="5">
+        <v>0</v>
+      </c>
+      <c r="X87" s="5">
         <v>2552233600</v>
       </c>
-      <c r="AF87" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG87" s="19">
+      <c r="AF87" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG87" s="5">
         <v>1</v>
       </c>
     </row>
@@ -13116,7 +13125,7 @@
         <v>257</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -13137,7 +13146,7 @@
         <v>258</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="U88" s="5" t="s">
         <v>552</v>
@@ -13172,7 +13181,7 @@
         <v>259</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -13193,7 +13202,7 @@
         <v>129</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="U89" s="5" t="s">
         <v>552</v>
@@ -13228,7 +13237,7 @@
         <v>261</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -13249,7 +13258,7 @@
         <v>222</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>552</v>
@@ -13284,7 +13293,7 @@
         <v>262</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -13340,7 +13349,7 @@
         <v>263</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -13358,10 +13367,10 @@
         <v>4800</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="U92" s="5" t="s">
         <v>552</v>
@@ -13396,7 +13405,7 @@
         <v>264</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -13417,7 +13426,7 @@
         <v>265</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="U93" s="5" t="s">
         <v>552</v>
@@ -13470,7 +13479,7 @@
         <v>90</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="U94" s="5" t="s">
         <v>551</v>
@@ -13505,7 +13514,7 @@
         <v>267</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -13526,7 +13535,7 @@
         <v>218</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="S95" s="7"/>
@@ -13564,7 +13573,7 @@
         <v>268</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -13620,7 +13629,7 @@
         <v>269</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -13638,13 +13647,13 @@
         <v>4800</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>270</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>271</v>
@@ -13682,7 +13691,7 @@
         <v>272</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -13700,13 +13709,13 @@
         <v>9800</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>273</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>274</v>
@@ -13744,7 +13753,7 @@
         <v>275</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -13762,13 +13771,13 @@
         <v>19800</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>276</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>277</v>
@@ -13806,7 +13815,7 @@
         <v>591</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -13827,7 +13836,7 @@
         <v>592</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="U100" s="19" t="s">
         <v>552</v>
@@ -13869,7 +13878,7 @@
         <v>542</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -13890,7 +13899,7 @@
         <v>593</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="U101" s="19" t="s">
         <v>552</v>
@@ -13932,7 +13941,7 @@
         <v>279</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -13953,7 +13962,7 @@
         <v>593</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="U102" s="19" t="s">
         <v>552</v>
@@ -13995,7 +14004,7 @@
         <v>591</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -14016,7 +14025,7 @@
         <v>593</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="U103" s="19" t="s">
         <v>552</v>
@@ -14058,7 +14067,7 @@
         <v>543</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -14079,7 +14088,7 @@
         <v>593</v>
       </c>
       <c r="P104" s="19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="U104" s="19" t="s">
         <v>552</v>
@@ -14121,7 +14130,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -14142,7 +14151,7 @@
         <v>592</v>
       </c>
       <c r="P105" s="19" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U105" s="19" t="s">
         <v>552</v>
@@ -14184,7 +14193,7 @@
         <v>590</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -14205,7 +14214,7 @@
         <v>593</v>
       </c>
       <c r="P106" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="U106" s="19" t="s">
         <v>552</v>
@@ -14247,7 +14256,7 @@
         <v>279</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -14268,7 +14277,7 @@
         <v>592</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="U107" s="19" t="s">
         <v>552</v>
@@ -14310,7 +14319,7 @@
         <v>82</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -14331,7 +14340,7 @@
         <v>593</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="U108" s="19" t="s">
         <v>552</v>
@@ -14430,7 +14439,7 @@
         <v>285</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -14448,13 +14457,13 @@
         <v>3800</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>286</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>287</v>
@@ -14492,7 +14501,7 @@
         <v>288</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -14510,13 +14519,13 @@
         <v>8800</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>289</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>290</v>
@@ -14554,7 +14563,7 @@
         <v>291</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -14572,13 +14581,13 @@
         <v>18800</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>292</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>293</v>
@@ -14616,7 +14625,7 @@
         <v>294</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -14672,7 +14681,7 @@
         <v>297</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -14728,7 +14737,7 @@
         <v>299</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -14746,7 +14755,7 @@
         <v>9800</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>300</v>
@@ -14784,7 +14793,7 @@
         <v>301</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -14802,13 +14811,13 @@
         <v>4800</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>302</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>303</v>
@@ -14846,7 +14855,7 @@
         <v>304</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -14864,13 +14873,13 @@
         <v>9800</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>273</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>274</v>
@@ -14908,7 +14917,7 @@
         <v>305</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -14964,7 +14973,7 @@
         <v>307</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -15020,7 +15029,7 @@
         <v>310</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -15076,7 +15085,7 @@
         <v>313</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -15135,7 +15144,7 @@
         <v>317</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -15194,7 +15203,7 @@
         <v>320</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -15253,7 +15262,7 @@
         <v>297</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -15309,7 +15318,7 @@
         <v>323</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -15365,7 +15374,7 @@
         <v>325</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -15421,7 +15430,7 @@
         <v>327</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -15504,7 +15513,7 @@
         <v>90</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="U128" s="5" t="s">
         <v>551</v>
@@ -15560,7 +15569,7 @@
         <v>90</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="U129" s="5" t="s">
         <v>551</v>
@@ -15595,7 +15604,7 @@
         <v>333</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -15657,7 +15666,7 @@
         <v>251</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -15719,7 +15728,7 @@
         <v>337</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -15781,7 +15790,7 @@
         <v>339</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -15802,7 +15811,7 @@
         <v>295</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="U133" s="5" t="s">
         <v>554</v>
@@ -15843,7 +15852,7 @@
         <v>340</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -15864,7 +15873,7 @@
         <v>308</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U134" s="5" t="s">
         <v>554</v>
@@ -15905,7 +15914,7 @@
         <v>342</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -15926,7 +15935,7 @@
         <v>311</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="U135" s="5" t="s">
         <v>554</v>
@@ -15967,7 +15976,7 @@
         <v>452</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -15988,7 +15997,7 @@
         <v>160</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="U136" s="5" t="s">
         <v>554</v>
@@ -16026,7 +16035,7 @@
         <v>453</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -16047,7 +16056,7 @@
         <v>160</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="U137" s="5" t="s">
         <v>554</v>
@@ -16085,7 +16094,7 @@
         <v>454</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -16106,7 +16115,7 @@
         <v>160</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="U138" s="5" t="s">
         <v>554</v>
@@ -16144,7 +16153,7 @@
         <v>455</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -16165,7 +16174,7 @@
         <v>160</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="U139" s="5" t="s">
         <v>554</v>
@@ -16203,7 +16212,7 @@
         <v>456</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -16224,7 +16233,7 @@
         <v>160</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="U140" s="5" t="s">
         <v>554</v>
@@ -16262,7 +16271,7 @@
         <v>457</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -16283,7 +16292,7 @@
         <v>160</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="U141" s="5" t="s">
         <v>554</v>
@@ -16321,7 +16330,7 @@
         <v>343</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -16383,7 +16392,7 @@
         <v>344</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -16445,7 +16454,7 @@
         <v>345</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -16510,7 +16519,7 @@
         <v>347</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -16531,13 +16540,13 @@
         <v>348</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="R145" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="U145" s="5" t="s">
         <v>552</v>
@@ -16575,7 +16584,7 @@
         <v>349</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -16596,13 +16605,13 @@
         <v>278</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="R146" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="U146" s="5" t="s">
         <v>552</v>
@@ -16640,7 +16649,7 @@
         <v>350</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -16661,13 +16670,13 @@
         <v>278</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="R147" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="U147" s="5" t="s">
         <v>552</v>
@@ -16705,7 +16714,7 @@
         <v>351</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -16726,13 +16735,13 @@
         <v>278</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="R148" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="U148" s="5" t="s">
         <v>552</v>
@@ -16770,7 +16779,7 @@
         <v>352</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -16791,13 +16800,13 @@
         <v>278</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="R149" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="U149" s="5" t="s">
         <v>552</v>
@@ -16832,7 +16841,7 @@
         <v>353</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -16894,7 +16903,7 @@
         <v>354</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -16956,7 +16965,7 @@
         <v>355</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -17015,10 +17024,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -17039,13 +17048,13 @@
         <v>348</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="R153" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="U153" s="5" t="s">
         <v>554</v>
@@ -17080,7 +17089,7 @@
         <v>356</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -17101,13 +17110,13 @@
         <v>348</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="R154" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="U154" s="5" t="s">
         <v>554</v>
@@ -17142,7 +17151,7 @@
         <v>357</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -17163,13 +17172,13 @@
         <v>348</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="R155" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="U155" s="5" t="s">
         <v>554</v>
@@ -17204,7 +17213,7 @@
         <v>358</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -17225,13 +17234,13 @@
         <v>348</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="R156" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="U156" s="5" t="s">
         <v>554</v>
@@ -17266,7 +17275,7 @@
         <v>359</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -17287,13 +17296,13 @@
         <v>348</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="R157" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="U157" s="5" t="s">
         <v>554</v>
@@ -17328,7 +17337,7 @@
         <v>360</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -17390,7 +17399,7 @@
         <v>362</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -17452,7 +17461,7 @@
         <v>364</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -17514,7 +17523,7 @@
         <v>366</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -17576,7 +17585,7 @@
         <v>367</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -17638,7 +17647,7 @@
         <v>368</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -17697,10 +17706,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -17724,7 +17733,7 @@
         <v>220</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="U164" s="5" t="s">
         <v>551</v>
@@ -17765,7 +17774,7 @@
         <v>369</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -17827,7 +17836,7 @@
         <v>370</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -17889,7 +17898,7 @@
         <v>371</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -17951,7 +17960,7 @@
         <v>372</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="J168" s="19">
         <v>-28</v>
@@ -17969,10 +17978,10 @@
         <v>600</v>
       </c>
       <c r="O168" s="19" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="U168" s="19" t="s">
         <v>551</v>
@@ -18016,7 +18025,7 @@
         <v>483</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="J169" s="19">
         <v>-28</v>
@@ -18034,10 +18043,10 @@
         <v>3000</v>
       </c>
       <c r="O169" s="19" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="U169" s="19" t="s">
         <v>631</v>
@@ -18078,7 +18087,7 @@
         <v>373</v>
       </c>
       <c r="H170" s="19" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="J170" s="19">
         <v>-28</v>
@@ -18096,10 +18105,10 @@
         <v>19800</v>
       </c>
       <c r="O170" s="19" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="U170" s="19" t="s">
         <v>631</v>
@@ -18137,10 +18146,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -18158,10 +18167,10 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="U171" s="19" t="s">
         <v>598</v>
@@ -18202,10 +18211,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -18223,10 +18232,10 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="U172" s="19" t="s">
         <v>554</v>
@@ -18267,10 +18276,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -18288,10 +18297,10 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="U173" s="19" t="s">
         <v>554</v>
@@ -18332,10 +18341,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -18353,10 +18362,10 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="U174" s="19" t="s">
         <v>554</v>
@@ -18397,10 +18406,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -18418,10 +18427,10 @@
         <v>1000</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="U175" s="19" t="s">
         <v>554</v>
@@ -18462,10 +18471,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -18483,10 +18492,10 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="U176" s="19" t="s">
         <v>554</v>
@@ -18527,10 +18536,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -18548,10 +18557,10 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="U177" s="19" t="s">
         <v>554</v>
@@ -18592,10 +18601,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -18613,10 +18622,10 @@
         <v>4800</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="U178" s="19" t="s">
         <v>554</v>
@@ -18657,10 +18666,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -18678,10 +18687,10 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="U179" s="19" t="s">
         <v>554</v>
@@ -18722,10 +18731,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -18743,10 +18752,10 @@
         <v>4800</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="U180" s="19" t="s">
         <v>554</v>
@@ -18787,10 +18796,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -18808,10 +18817,10 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="U181" s="19" t="s">
         <v>554</v>
@@ -18852,10 +18861,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -18873,10 +18882,10 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="U182" s="19" t="s">
         <v>554</v>
@@ -18917,10 +18926,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -18938,10 +18947,10 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="U183" s="19" t="s">
         <v>554</v>
@@ -18982,10 +18991,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -19003,10 +19012,10 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U184" s="19" t="s">
         <v>554</v>
@@ -19047,10 +19056,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -19068,10 +19077,10 @@
         <v>49800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="U185" s="19" t="s">
         <v>554</v>
@@ -19115,7 +19124,7 @@
         <v>327</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -19136,13 +19145,13 @@
         <v>464</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>330</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="U186" s="5" t="s">
         <v>551</v>
@@ -19177,7 +19186,7 @@
         <v>374</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -19242,7 +19251,7 @@
         <v>376</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -19307,7 +19316,7 @@
         <v>378</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -19372,7 +19381,7 @@
         <v>380</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -19437,7 +19446,7 @@
         <v>382</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -19502,7 +19511,7 @@
         <v>384</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -19567,7 +19576,7 @@
         <v>386</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -19632,7 +19641,7 @@
         <v>388</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -19697,7 +19706,7 @@
         <v>390</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -19762,7 +19771,7 @@
         <v>392</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -19827,7 +19836,7 @@
         <v>394</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -19892,7 +19901,7 @@
         <v>396</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -19957,7 +19966,7 @@
         <v>398</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -20022,7 +20031,7 @@
         <v>399</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -20087,7 +20096,7 @@
         <v>400</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -20152,7 +20161,7 @@
         <v>374</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -20217,7 +20226,7 @@
         <v>376</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -20282,7 +20291,7 @@
         <v>378</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -20347,7 +20356,7 @@
         <v>380</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -20412,7 +20421,7 @@
         <v>382</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -20477,7 +20486,7 @@
         <v>384</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -20542,7 +20551,7 @@
         <v>386</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -20607,7 +20616,7 @@
         <v>388</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -20672,7 +20681,7 @@
         <v>390</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -20737,7 +20746,7 @@
         <v>392</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -20802,7 +20811,7 @@
         <v>394</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -20867,7 +20876,7 @@
         <v>396</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -20932,7 +20941,7 @@
         <v>398</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -20997,7 +21006,7 @@
         <v>399</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -21062,7 +21071,7 @@
         <v>400</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -21127,7 +21136,7 @@
         <v>374</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -21192,7 +21201,7 @@
         <v>376</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -21257,7 +21266,7 @@
         <v>378</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -21322,7 +21331,7 @@
         <v>380</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -21387,7 +21396,7 @@
         <v>382</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -21452,7 +21461,7 @@
         <v>384</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -21517,7 +21526,7 @@
         <v>386</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -21582,7 +21591,7 @@
         <v>388</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -21647,7 +21656,7 @@
         <v>390</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -21712,7 +21721,7 @@
         <v>392</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -21777,7 +21786,7 @@
         <v>394</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -21842,7 +21851,7 @@
         <v>396</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -21907,7 +21916,7 @@
         <v>398</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -21972,7 +21981,7 @@
         <v>399</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -22037,7 +22046,7 @@
         <v>400</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -22102,7 +22111,7 @@
         <v>374</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -22167,7 +22176,7 @@
         <v>376</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -22232,7 +22241,7 @@
         <v>378</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -22297,7 +22306,7 @@
         <v>380</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -22362,7 +22371,7 @@
         <v>382</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -22427,7 +22436,7 @@
         <v>384</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -22492,7 +22501,7 @@
         <v>386</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -22557,7 +22566,7 @@
         <v>388</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -22622,7 +22631,7 @@
         <v>390</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -22687,7 +22696,7 @@
         <v>392</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -22752,7 +22761,7 @@
         <v>394</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -22817,7 +22826,7 @@
         <v>396</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -22882,7 +22891,7 @@
         <v>398</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -22947,7 +22956,7 @@
         <v>399</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -23012,7 +23021,7 @@
         <v>400</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -23074,10 +23083,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -23098,7 +23107,7 @@
         <v>160</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="U247" s="5" t="s">
         <v>554</v>
@@ -23142,7 +23151,7 @@
         <v>450</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -23163,7 +23172,7 @@
         <v>160</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="U248" s="5" t="s">
         <v>554</v>
@@ -23207,7 +23216,7 @@
         <v>451</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -23228,7 +23237,7 @@
         <v>160</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="U249" s="5" t="s">
         <v>554</v>
@@ -23272,7 +23281,7 @@
         <v>462</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="J250" s="19">
         <v>-28</v>
@@ -23293,7 +23302,7 @@
         <v>461</v>
       </c>
       <c r="P250" s="19" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="U250" s="19" t="s">
         <v>551</v>
@@ -23334,7 +23343,7 @@
         <v>327</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -23352,16 +23361,16 @@
         <v>600</v>
       </c>
       <c r="O251" s="5" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>330</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="U251" s="5" t="s">
         <v>551</v>
@@ -23402,7 +23411,7 @@
         <v>485</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -23423,7 +23432,7 @@
         <v>461</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="U252" s="5" t="s">
         <v>631</v>
@@ -23464,7 +23473,7 @@
         <v>486</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -23485,7 +23494,7 @@
         <v>504</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="U253" s="5" t="s">
         <v>554</v>
@@ -23526,7 +23535,7 @@
         <v>501</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -23547,7 +23556,7 @@
         <v>503</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="U254" s="5" t="s">
         <v>554</v>
@@ -23591,7 +23600,7 @@
         <v>497</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -23612,7 +23621,7 @@
         <v>484</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="U255" s="5" t="s">
         <v>554</v>
@@ -23656,7 +23665,7 @@
         <v>498</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -23677,7 +23686,7 @@
         <v>515</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="U256" s="5" t="s">
         <v>554</v>
@@ -23721,7 +23730,7 @@
         <v>505</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -23742,13 +23751,13 @@
         <v>610</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="R257" s="5" t="s">
         <v>506</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="U257" s="5" t="s">
         <v>551</v>
@@ -23789,7 +23798,7 @@
         <v>537</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -23854,7 +23863,7 @@
         <v>376</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -23919,7 +23928,7 @@
         <v>378</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -23984,7 +23993,7 @@
         <v>380</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -24049,7 +24058,7 @@
         <v>382</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -24114,7 +24123,7 @@
         <v>384</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -24179,7 +24188,7 @@
         <v>508</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -24244,7 +24253,7 @@
         <v>509</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -24309,7 +24318,7 @@
         <v>510</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -24374,7 +24383,7 @@
         <v>511</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -24439,7 +24448,7 @@
         <v>512</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -24504,7 +24513,7 @@
         <v>513</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -24569,7 +24578,7 @@
         <v>398</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -24634,7 +24643,7 @@
         <v>399</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -24699,7 +24708,7 @@
         <v>400</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -24785,7 +24794,7 @@
         <v>90</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="U273" s="5" t="s">
         <v>551</v>
@@ -24822,7 +24831,7 @@
         <v>549</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -24844,7 +24853,7 @@
         <v>550</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
@@ -24895,7 +24904,7 @@
         <v>555</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -24916,7 +24925,7 @@
         <v>589</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="U275" s="5" t="s">
         <v>551</v>
@@ -24960,7 +24969,7 @@
         <v>556</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -24981,7 +24990,7 @@
         <v>568</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="U276" s="5" t="s">
         <v>554</v>
@@ -25025,7 +25034,7 @@
         <v>557</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -25046,7 +25055,7 @@
         <v>568</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="U277" s="5" t="s">
         <v>565</v>
@@ -25090,7 +25099,7 @@
         <v>558</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -25111,7 +25120,7 @@
         <v>568</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U278" s="5" t="s">
         <v>566</v>
@@ -25155,7 +25164,7 @@
         <v>559</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -25176,7 +25185,7 @@
         <v>568</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U279" s="5" t="s">
         <v>567</v>
@@ -25220,7 +25229,7 @@
         <v>560</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -25241,7 +25250,7 @@
         <v>568</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U280" s="5" t="s">
         <v>551</v>
@@ -25285,7 +25294,7 @@
         <v>561</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -25306,7 +25315,7 @@
         <v>568</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U281" s="5" t="s">
         <v>554</v>
@@ -25350,7 +25359,7 @@
         <v>562</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -25371,7 +25380,7 @@
         <v>568</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U282" s="5" t="s">
         <v>565</v>
@@ -25415,7 +25424,7 @@
         <v>563</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -25436,7 +25445,7 @@
         <v>568</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="U283" s="5" t="s">
         <v>566</v>
@@ -25480,7 +25489,7 @@
         <v>564</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -25501,7 +25510,7 @@
         <v>568</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="U284" s="5" t="s">
         <v>567</v>
@@ -25566,7 +25575,7 @@
         <v>568</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U285" s="5" t="s">
         <v>554</v>
@@ -25628,7 +25637,7 @@
         <v>568</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="U286" s="5" t="s">
         <v>554</v>
@@ -25690,7 +25699,7 @@
         <v>568</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="U287" s="5" t="s">
         <v>554</v>
@@ -25752,7 +25761,7 @@
         <v>568</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="U288" s="5" t="s">
         <v>554</v>
@@ -25814,7 +25823,7 @@
         <v>568</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U289" s="5" t="s">
         <v>554</v>
@@ -25876,7 +25885,7 @@
         <v>568</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U290" s="5" t="s">
         <v>554</v>
@@ -25938,7 +25947,7 @@
         <v>568</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U291" s="5" t="s">
         <v>554</v>
@@ -26000,7 +26009,7 @@
         <v>568</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U292" s="5" t="s">
         <v>554</v>
@@ -26062,7 +26071,7 @@
         <v>618</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="U293" s="5" t="s">
         <v>554</v>
@@ -26103,7 +26112,7 @@
         <v>632</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -26124,7 +26133,7 @@
         <v>609</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="U294" s="5" t="s">
         <v>554</v>
@@ -26165,7 +26174,7 @@
         <v>633</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -26186,7 +26195,7 @@
         <v>609</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="U295" s="5" t="s">
         <v>554</v>
@@ -26227,7 +26236,7 @@
         <v>634</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -26248,7 +26257,7 @@
         <v>609</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="U296" s="5" t="s">
         <v>554</v>
@@ -26289,7 +26298,7 @@
         <v>635</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -26310,7 +26319,7 @@
         <v>609</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U297" s="5" t="s">
         <v>554</v>
@@ -26351,7 +26360,7 @@
         <v>636</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -26372,7 +26381,7 @@
         <v>608</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U298" s="5" t="s">
         <v>554</v>
@@ -26413,7 +26422,7 @@
         <v>637</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -26434,7 +26443,7 @@
         <v>607</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="U299" s="5" t="s">
         <v>554</v>
@@ -26475,7 +26484,7 @@
         <v>638</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -26496,7 +26505,7 @@
         <v>607</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="U300" s="5" t="s">
         <v>554</v>
@@ -26537,7 +26546,7 @@
         <v>639</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -26558,7 +26567,7 @@
         <v>607</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U301" s="5" t="s">
         <v>554</v>
@@ -26599,7 +26608,7 @@
         <v>640</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -26620,7 +26629,7 @@
         <v>607</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U302" s="5" t="s">
         <v>554</v>
@@ -26661,7 +26670,7 @@
         <v>641</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -26682,7 +26691,7 @@
         <v>607</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="U303" s="5" t="s">
         <v>554</v>
@@ -26723,7 +26732,7 @@
         <v>642</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -26744,7 +26753,7 @@
         <v>607</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="U304" s="5" t="s">
         <v>554</v>
@@ -26785,7 +26794,7 @@
         <v>643</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -26806,7 +26815,7 @@
         <v>607</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="U305" s="5" t="s">
         <v>554</v>
@@ -26847,7 +26856,7 @@
         <v>644</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -26868,7 +26877,7 @@
         <v>607</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U306" s="5" t="s">
         <v>554</v>
@@ -26909,7 +26918,7 @@
         <v>645</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -26930,7 +26939,7 @@
         <v>607</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="U307" s="5" t="s">
         <v>554</v>
@@ -26971,7 +26980,7 @@
         <v>646</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -26992,7 +27001,7 @@
         <v>614</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="U308" s="5" t="s">
         <v>554</v>
@@ -27033,7 +27042,7 @@
         <v>647</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -27054,7 +27063,7 @@
         <v>619</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="U309" s="5" t="s">
         <v>554</v>
@@ -27092,10 +27101,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -27116,7 +27125,7 @@
         <v>620</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="U310" s="5" t="s">
         <v>554</v>
@@ -27154,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -27178,7 +27187,7 @@
         <v>621</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="U311" s="5" t="s">
         <v>554</v>
@@ -27216,10 +27225,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -27240,7 +27249,7 @@
         <v>621</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="U312" s="5" t="s">
         <v>628</v>
@@ -27278,10 +27287,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -27302,7 +27311,7 @@
         <v>621</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U313" s="5" t="s">
         <v>629</v>
@@ -27340,10 +27349,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -27364,7 +27373,7 @@
         <v>620</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="U314" s="5" t="s">
         <v>630</v>
@@ -27402,10 +27411,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -27426,7 +27435,7 @@
         <v>621</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="U315" s="5" t="s">
         <v>631</v>
@@ -27653,7 +27662,7 @@
         <v>651</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -27674,7 +27683,7 @@
         <v>653</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>841</v>
+        <v>1226</v>
       </c>
       <c r="U319" s="5" t="s">
         <v>553</v>
@@ -27709,7 +27718,7 @@
         <v>652</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>987</v>
+        <v>1225</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -27730,7 +27739,7 @@
         <v>654</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="U320" s="5" t="s">
         <v>553</v>
@@ -27765,7 +27774,7 @@
         <v>655</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -27786,7 +27795,7 @@
         <v>657</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="U321" s="5" t="s">
         <v>551</v>
@@ -27889,10 +27898,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -27911,10 +27920,10 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
@@ -27971,10 +27980,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -27993,10 +28002,10 @@
         <v>4800</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
@@ -28053,10 +28062,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -28075,10 +28084,10 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
@@ -28132,10 +28141,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -28147,13 +28156,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28165,13 +28174,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AA326" s="41" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AB326" s="42" t="s">
         <v>1144</v>
-      </c>
-      <c r="AA326" s="41" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AB326" s="42" t="s">
-        <v>1148</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -28191,10 +28200,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="H327" s="44" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="J327" s="44">
         <v>-31</v>
@@ -28206,19 +28215,19 @@
         <v>0</v>
       </c>
       <c r="M327" s="44" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="N327" s="44">
         <v>9900</v>
       </c>
       <c r="O327" s="44" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="P327" s="44" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="U327" s="44" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="V327" s="44">
         <v>99999999</v>
@@ -28256,10 +28265,10 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="H328" s="44" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="I328" s="44"/>
       <c r="J328" s="44">
@@ -28272,23 +28281,23 @@
         <v>0</v>
       </c>
       <c r="M328" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N328" s="44">
         <v>600</v>
       </c>
       <c r="O328" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="Q328" s="44"/>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V328" s="44">
         <v>99999999</v>
@@ -28337,10 +28346,10 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="H329" s="44" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="I329" s="44"/>
       <c r="J329" s="44">
@@ -28353,23 +28362,23 @@
         <v>0</v>
       </c>
       <c r="M329" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N329" s="44">
         <v>2800</v>
       </c>
       <c r="O329" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="Q329" s="44"/>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V329" s="44">
         <v>99999999</v>
@@ -28418,10 +28427,10 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="H330" s="44" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="I330" s="44"/>
       <c r="J330" s="44">
@@ -28434,23 +28443,23 @@
         <v>0</v>
       </c>
       <c r="M330" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N330" s="44">
         <v>4800</v>
       </c>
       <c r="O330" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="Q330" s="44"/>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V330" s="44">
         <v>99999999</v>
@@ -28499,10 +28508,10 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="H331" s="44" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="I331" s="44"/>
       <c r="J331" s="44">
@@ -28515,23 +28524,23 @@
         <v>0</v>
       </c>
       <c r="M331" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N331" s="44">
         <v>9900</v>
       </c>
       <c r="O331" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="Q331" s="44"/>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V331" s="44">
         <v>99999999</v>
@@ -28580,10 +28589,10 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="H332" s="44" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="I332" s="44"/>
       <c r="J332" s="44">
@@ -28596,23 +28605,23 @@
         <v>0</v>
       </c>
       <c r="M332" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N332" s="44">
         <v>19800</v>
       </c>
       <c r="O332" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="Q332" s="44"/>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V332" s="44">
         <v>99999999</v>
@@ -28661,10 +28670,10 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="H333" s="44" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="I333" s="44"/>
       <c r="J333" s="44">
@@ -28677,23 +28686,23 @@
         <v>0</v>
       </c>
       <c r="M333" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N333" s="44">
         <v>29800</v>
       </c>
       <c r="O333" s="44" t="s">
+        <v>1173</v>
+      </c>
+      <c r="P333" s="44" t="s">
         <v>1177</v>
-      </c>
-      <c r="P333" s="44" t="s">
-        <v>1181</v>
       </c>
       <c r="Q333" s="44"/>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V333" s="44">
         <v>99999999</v>
@@ -28742,10 +28751,10 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="H334" s="44" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="I334" s="44"/>
       <c r="J334" s="44">
@@ -28758,23 +28767,23 @@
         <v>0</v>
       </c>
       <c r="M334" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N334" s="44">
         <v>39800</v>
       </c>
       <c r="O334" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="Q334" s="44"/>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V334" s="44">
         <v>99999999</v>
@@ -28823,10 +28832,10 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="H335" s="44" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="I335" s="44"/>
       <c r="J335" s="44">
@@ -28839,23 +28848,23 @@
         <v>0</v>
       </c>
       <c r="M335" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N335" s="44">
         <v>49800</v>
       </c>
       <c r="O335" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="Q335" s="44"/>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V335" s="44">
         <v>99999999</v>
@@ -28904,10 +28913,10 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="H336" s="44" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="I336" s="44"/>
       <c r="J336" s="44">
@@ -28920,23 +28929,23 @@
         <v>0</v>
       </c>
       <c r="M336" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N336" s="44">
         <v>59800</v>
       </c>
       <c r="O336" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="Q336" s="44"/>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V336" s="44">
         <v>99999999</v>
@@ -28985,10 +28994,10 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="H337" s="44" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="I337" s="44"/>
       <c r="J337" s="44">
@@ -29001,23 +29010,23 @@
         <v>0</v>
       </c>
       <c r="M337" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N337" s="44">
         <v>69800</v>
       </c>
       <c r="O337" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="Q337" s="44"/>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V337" s="44">
         <v>99999999</v>
@@ -29063,10 +29072,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="H338" s="19" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="J338" s="19">
         <v>-31</v>
@@ -29084,10 +29093,10 @@
         <v>19800</v>
       </c>
       <c r="O338" s="19" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="U338" s="19" t="s">
         <v>551</v>
@@ -29102,10 +29111,10 @@
         <v>2552233600</v>
       </c>
       <c r="Z338" s="19" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="AF338" s="19">
         <v>1</v>
@@ -29137,7 +29146,7 @@
         <v>505</v>
       </c>
       <c r="H339" s="19" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="I339" s="19"/>
       <c r="J339" s="19">
@@ -29156,10 +29165,10 @@
         <v>30000</v>
       </c>
       <c r="O339" s="19" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="Q339" s="19"/>
       <c r="R339" s="19"/>
@@ -29179,10 +29188,10 @@
       </c>
       <c r="Y339" s="19"/>
       <c r="Z339" s="19" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="AA339" s="19" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="AB339" s="19"/>
       <c r="AC339" s="19"/>
@@ -29217,10 +29226,10 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="H340" s="19" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="I340" s="19"/>
       <c r="J340" s="19">
@@ -29239,10 +29248,10 @@
         <v>78000</v>
       </c>
       <c r="O340" s="19" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="Q340" s="19"/>
       <c r="R340" s="19"/>
@@ -29262,10 +29271,10 @@
       </c>
       <c r="Y340" s="19"/>
       <c r="Z340" s="19" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="AA340" s="19" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="AB340" s="19"/>
       <c r="AC340" s="19"/>
@@ -29314,7 +29323,7 @@
         <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>403</v>
@@ -29331,7 +29340,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -29348,7 +29357,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -29362,7 +29371,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -29376,7 +29385,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -29502,7 +29511,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -29530,7 +29539,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -29742,10 +29751,10 @@
         <v>416</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -29802,7 +29811,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29846,10 +29855,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>50</v>
@@ -29911,10 +29920,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>53</v>
@@ -29976,10 +29985,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>55</v>
@@ -30041,10 +30050,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>57</v>
@@ -30106,10 +30115,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>59</v>
@@ -30171,10 +30180,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>61</v>
@@ -30233,10 +30242,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>50</v>
@@ -30295,7 +30304,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
@@ -30313,7 +30322,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30357,7 +30366,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
@@ -30375,7 +30384,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30419,10 +30428,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>53</v>
@@ -30484,10 +30493,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>63</v>
@@ -30549,10 +30558,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>421</v>
@@ -30614,10 +30623,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>422</v>
@@ -30679,7 +30688,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
@@ -30698,7 +30707,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30745,10 +30754,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>72</v>
@@ -30807,10 +30816,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>75</v>
@@ -30869,10 +30878,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>78</v>
@@ -30931,10 +30940,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>82</v>
@@ -30993,10 +31002,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>86</v>
@@ -31055,10 +31064,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>89</v>
@@ -31117,7 +31126,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="11">
@@ -31177,7 +31186,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="11">
@@ -31240,7 +31249,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="11">
@@ -31259,7 +31268,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="34" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -31279,7 +31288,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="G25" s="11">
         <v>19800</v>
@@ -31306,10 +31315,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="S25" s="34" t="s">
         <v>548</v>
@@ -31768,7 +31777,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -31786,7 +31795,7 @@
         <v>448</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>433</v>
@@ -31961,7 +31970,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>488</v>
@@ -32008,7 +32017,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>488</v>
@@ -32055,7 +32064,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>492</v>

--- a/config_0817/shoping_config.xlsx
+++ b/config_0817/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="1276">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5481,6 +5481,190 @@
   </si>
   <si>
     <t>4800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元-首日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元-次日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元-三日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元-首日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元-次日</t>
+  </si>
+  <si>
+    <t>48元-三日</t>
+  </si>
+  <si>
+    <t>98元-首日</t>
+  </si>
+  <si>
+    <t>98元-次日</t>
+  </si>
+  <si>
+    <t>98元-三日</t>
+  </si>
+  <si>
+    <t>198元-首日</t>
+  </si>
+  <si>
+    <t>198元-次日</t>
+  </si>
+  <si>
+    <t>198元-三日</t>
+  </si>
+  <si>
+    <t>"60万金币","锁定*1","最高10万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","锁定*2","最高12万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","锁定*3","最高15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*2","最高80万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*3","最高96万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*4","最高120万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","锁定*3","最高170万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","锁定*4","最高200万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","锁定*5","最高248万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","锁定*4","最高330万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","锁定*5","最高400万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","锁定*6","最高500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,2,</t>
+  </si>
+  <si>
+    <t>600000,3,</t>
+  </si>
+  <si>
+    <t>4800000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,3,</t>
+  </si>
+  <si>
+    <t>4800000,4,</t>
+  </si>
+  <si>
+    <t>9800000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15000,21000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{22000,26000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{27000,33000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{122000,166000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{174000,210000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{220000,260000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{276000,312000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{362000,422000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{460000,520000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{555000,633000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{762000,822000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{96000,1020000,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8165,13 +8349,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL340"/>
+  <dimension ref="A1:AL352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="T323" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F85" sqref="F85:F87"/>
+      <selection pane="bottomRight" activeCell="V346" sqref="V346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -28287,7 +28471,7 @@
         <v>600</v>
       </c>
       <c r="O328" s="44" t="s">
-        <v>1173</v>
+        <v>1251</v>
       </c>
       <c r="P328" s="44" t="s">
         <v>1174</v>
@@ -29292,6 +29476,822 @@
         <v>1</v>
       </c>
       <c r="AK340" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="5">
+        <v>340</v>
+      </c>
+      <c r="B341" s="5">
+        <v>10257</v>
+      </c>
+      <c r="F341" s="5">
+        <v>1</v>
+      </c>
+      <c r="G341" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H341" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J341" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K341" s="5">
+        <v>0</v>
+      </c>
+      <c r="L341" s="5">
+        <v>0</v>
+      </c>
+      <c r="M341" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N341" s="5">
+        <v>600</v>
+      </c>
+      <c r="O341" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P341" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="U341" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V341" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W341" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X341" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z341" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA341" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AF341" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG341" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ341" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK341" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A342" s="6">
+        <v>341</v>
+      </c>
+      <c r="B342" s="5">
+        <v>10258</v>
+      </c>
+      <c r="F342" s="5">
+        <v>1</v>
+      </c>
+      <c r="G342" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J342" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K342" s="5">
+        <v>0</v>
+      </c>
+      <c r="L342" s="5">
+        <v>0</v>
+      </c>
+      <c r="M342" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N342" s="5">
+        <v>600</v>
+      </c>
+      <c r="O342" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P342" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="U342" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V342" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W342" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X342" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z342" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA342" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AF342" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG342" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ342" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK342" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A343" s="6">
+        <v>342</v>
+      </c>
+      <c r="B343" s="5">
+        <v>10259</v>
+      </c>
+      <c r="F343" s="5">
+        <v>1</v>
+      </c>
+      <c r="G343" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H343" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J343" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K343" s="5">
+        <v>0</v>
+      </c>
+      <c r="L343" s="5">
+        <v>0</v>
+      </c>
+      <c r="M343" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N343" s="5">
+        <v>600</v>
+      </c>
+      <c r="O343" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P343" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="U343" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V343" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W343" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X343" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z343" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA343" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AF343" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG343" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ343" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK343" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A344" s="6">
+        <v>343</v>
+      </c>
+      <c r="B344" s="5">
+        <v>10260</v>
+      </c>
+      <c r="F344" s="5">
+        <v>1</v>
+      </c>
+      <c r="G344" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H344" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J344" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K344" s="5">
+        <v>0</v>
+      </c>
+      <c r="L344" s="5">
+        <v>0</v>
+      </c>
+      <c r="M344" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N344" s="5">
+        <v>4800</v>
+      </c>
+      <c r="O344" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P344" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="U344" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V344" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W344" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X344" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z344" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA344" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AF344" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG344" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ344" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK344" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A345" s="6">
+        <v>344</v>
+      </c>
+      <c r="B345" s="5">
+        <v>10261</v>
+      </c>
+      <c r="F345" s="5">
+        <v>1</v>
+      </c>
+      <c r="G345" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H345" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J345" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K345" s="5">
+        <v>0</v>
+      </c>
+      <c r="L345" s="5">
+        <v>0</v>
+      </c>
+      <c r="M345" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N345" s="5">
+        <v>4800</v>
+      </c>
+      <c r="O345" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P345" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="U345" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V345" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W345" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X345" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z345" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA345" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AF345" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG345" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ345" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK345" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A346" s="6">
+        <v>345</v>
+      </c>
+      <c r="B346" s="5">
+        <v>10262</v>
+      </c>
+      <c r="F346" s="5">
+        <v>1</v>
+      </c>
+      <c r="G346" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J346" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K346" s="5">
+        <v>0</v>
+      </c>
+      <c r="L346" s="5">
+        <v>0</v>
+      </c>
+      <c r="M346" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N346" s="5">
+        <v>4800</v>
+      </c>
+      <c r="O346" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P346" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="U346" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V346" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W346" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X346" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z346" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA346" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AF346" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG346" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ346" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK346" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A347" s="6">
+        <v>346</v>
+      </c>
+      <c r="B347" s="5">
+        <v>10263</v>
+      </c>
+      <c r="F347" s="5">
+        <v>1</v>
+      </c>
+      <c r="G347" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H347" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J347" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K347" s="5">
+        <v>0</v>
+      </c>
+      <c r="L347" s="5">
+        <v>0</v>
+      </c>
+      <c r="M347" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N347" s="5">
+        <v>9800</v>
+      </c>
+      <c r="O347" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P347" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U347" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V347" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W347" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X347" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z347" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA347" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AF347" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG347" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ347" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK347" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A348" s="6">
+        <v>347</v>
+      </c>
+      <c r="B348" s="5">
+        <v>10264</v>
+      </c>
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+      <c r="G348" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J348" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K348" s="5">
+        <v>0</v>
+      </c>
+      <c r="L348" s="5">
+        <v>0</v>
+      </c>
+      <c r="M348" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N348" s="5">
+        <v>9800</v>
+      </c>
+      <c r="O348" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P348" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="U348" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V348" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W348" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X348" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z348" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA348" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AF348" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG348" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ348" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK348" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A349" s="6">
+        <v>348</v>
+      </c>
+      <c r="B349" s="5">
+        <v>10265</v>
+      </c>
+      <c r="F349" s="5">
+        <v>1</v>
+      </c>
+      <c r="G349" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H349" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J349" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K349" s="5">
+        <v>0</v>
+      </c>
+      <c r="L349" s="5">
+        <v>0</v>
+      </c>
+      <c r="M349" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N349" s="5">
+        <v>9800</v>
+      </c>
+      <c r="O349" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P349" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="U349" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V349" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W349" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X349" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z349" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA349" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AF349" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG349" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ349" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK349" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A350" s="6">
+        <v>349</v>
+      </c>
+      <c r="B350" s="5">
+        <v>10266</v>
+      </c>
+      <c r="F350" s="5">
+        <v>1</v>
+      </c>
+      <c r="G350" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J350" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K350" s="5">
+        <v>0</v>
+      </c>
+      <c r="L350" s="5">
+        <v>0</v>
+      </c>
+      <c r="M350" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N350" s="5">
+        <v>19800</v>
+      </c>
+      <c r="O350" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P350" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="U350" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V350" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W350" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X350" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z350" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA350" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AF350" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG350" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ350" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK350" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A351" s="6">
+        <v>350</v>
+      </c>
+      <c r="B351" s="5">
+        <v>10267</v>
+      </c>
+      <c r="F351" s="5">
+        <v>1</v>
+      </c>
+      <c r="G351" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H351" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J351" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K351" s="5">
+        <v>0</v>
+      </c>
+      <c r="L351" s="5">
+        <v>0</v>
+      </c>
+      <c r="M351" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N351" s="5">
+        <v>19800</v>
+      </c>
+      <c r="O351" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P351" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="U351" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V351" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W351" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X351" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z351" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA351" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AF351" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG351" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ351" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK351" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A352" s="6">
+        <v>351</v>
+      </c>
+      <c r="B352" s="5">
+        <v>10268</v>
+      </c>
+      <c r="F352" s="5">
+        <v>1</v>
+      </c>
+      <c r="G352" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H352" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J352" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K352" s="5">
+        <v>0</v>
+      </c>
+      <c r="L352" s="5">
+        <v>0</v>
+      </c>
+      <c r="M352" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N352" s="5">
+        <v>19800</v>
+      </c>
+      <c r="O352" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P352" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="U352" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="V352" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W352" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X352" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Z352" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA352" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AF352" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG352" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ352" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK352" s="5">
         <v>1</v>
       </c>
     </row>
